--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -843,7 +843,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.343M</t>
+          <t>3.386M</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>49.387M</t>
+          <t>49.566M</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.363M</t>
+          <t>3.392M</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.161M</t>
+          <t>1.174M</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>482,964</t>
+          <t>490,614</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>964,208</t>
+          <t>955,386</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>12.889M</t>
+          <t>13.089M</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1.45M</t>
+          <t>1.441M</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>514,045</t>
+          <t>522,758</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2.289M</t>
+          <t>2.283M</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.22M</t>
+          <t>1.225M</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.415M</t>
+          <t>2.419M</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.351M</t>
+          <t>5.376M</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5.963M</t>
+          <t>6.005M</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.452M</t>
+          <t>2.469M</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.577M</t>
+          <t>1.583M</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12.493M</t>
+          <t>12.496M</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>5.939M</t>
+          <t>5.812M</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2.174M</t>
+          <t>2.142M</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>7.317M</t>
+          <t>6.969M</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>553,215</t>
+          <t>558,738</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>749,615</t>
+          <t>749,877</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -14020,7 +14020,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1.554M</t>
+          <t>1.563M</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>11.694M</t>
+          <t>11.65M</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>608,876</t>
+          <t>610,211</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.92M</t>
+          <t>1.947M</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.37M</t>
+          <t>1.372M</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.223M</t>
+          <t>1.229M</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -18940,7 +18940,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>113,471</t>
+          <t>112,550</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -19589,7 +19589,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3.03M</t>
+          <t>3.041M</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2.103M</t>
+          <t>2.121M</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -20120,7 +20120,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>738,498</t>
+          <t>739,488</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>262,765</t>
+          <t>263,610</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -22126,7 +22126,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>1.714M</t>
+          <t>1.712M</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -23388,7 +23388,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90.378M</t>
+          <t>90.743M</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>28.415M</t>
+          <t>28.447M</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -25158,7 +25158,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>68.01M</t>
+          <t>66.816M</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11.354M</t>
+          <t>11.362M</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -27400,7 +27400,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>15.839M</t>
+          <t>15.844M</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>11.458M</t>
+          <t>11.529M</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -29406,7 +29406,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>10.499M</t>
+          <t>10.541M</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
